--- a/v0.0.2/projeto/recurso/componentes.xlsx
+++ b/v0.0.2/projeto/recurso/componentes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiqu\Downloads\etec199-2023-se-projeto-automobilistico-master\v0.0.1\projeto\recurso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiqu\Downloads\etec199-2023-se-projeto-automobilistico-master\v0.0.2\projeto\recurso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C772C994-37A5-4C2A-BDC5-95B3428D35E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9483CC2B-97CF-480F-B578-FFE6D667A378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EA4A9DED-AEE9-4F53-AAF7-4ACD2523B00A}"/>
   </bookViews>
@@ -42,15 +42,9 @@
     <t>QUANTIDADE</t>
   </si>
   <si>
-    <t>Arduino Uno R3</t>
-  </si>
-  <si>
     <t>Motor DC</t>
   </si>
   <si>
-    <t>Led</t>
-  </si>
-  <si>
     <t>Jumper MM</t>
   </si>
   <si>
@@ -60,21 +54,12 @@
     <t>Bateria SD1850 3.5V</t>
   </si>
   <si>
-    <t>Suporte Para Bateria</t>
-  </si>
-  <si>
     <t>Ponte H L298N</t>
   </si>
   <si>
     <t xml:space="preserve">Caixa de Reducao </t>
   </si>
   <si>
-    <t>Buzzer</t>
-  </si>
-  <si>
-    <t>HC-SR04</t>
-  </si>
-  <si>
     <t>Interruptor</t>
   </si>
   <si>
@@ -82,6 +67,21 @@
   </si>
   <si>
     <t>~10</t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t>Buzzer 5V 12mm</t>
+  </si>
+  <si>
+    <t>Led Vermelho</t>
+  </si>
+  <si>
+    <t>Suporte Para Bateria 4 Slots</t>
+  </si>
+  <si>
+    <t>Led Amarelo</t>
   </si>
 </sst>
 </file>
@@ -145,15 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,7 +470,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +489,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -500,7 +497,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -508,7 +505,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -516,7 +513,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -524,47 +521,47 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
         <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -572,7 +569,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -580,14 +577,14 @@
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B13">
     <sortCondition ref="A2:A13"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
